--- a/train/20250220_150401/benchmark_moves(R).xlsx
+++ b/train/20250220_150401/benchmark_moves(R).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,26 @@
           <t>Epoch 10</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 20</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 30</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 40</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 50</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +477,18 @@
       <c r="C2" t="n">
         <v>120.4</v>
       </c>
+      <c r="D2" t="n">
+        <v>118.6</v>
+      </c>
+      <c r="E2" t="n">
+        <v>118.8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>118.6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>120.2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +502,18 @@
       <c r="C3" t="n">
         <v>235</v>
       </c>
+      <c r="D3" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>235.2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>233.4</v>
+      </c>
+      <c r="G3" t="n">
+        <v>237.8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +527,18 @@
       <c r="C4" t="n">
         <v>467.8</v>
       </c>
+      <c r="D4" t="n">
+        <v>472.8</v>
+      </c>
+      <c r="E4" t="n">
+        <v>480.6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>479.2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>484.8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -496,6 +552,18 @@
       <c r="C5" t="n">
         <v>731.8</v>
       </c>
+      <c r="D5" t="n">
+        <v>731.2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>749.2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>746.4000000000001</v>
+      </c>
+      <c r="G5" t="n">
+        <v>762.6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -509,6 +577,18 @@
       <c r="C6" t="n">
         <v>972.4000000000001</v>
       </c>
+      <c r="D6" t="n">
+        <v>980.8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>996</v>
+      </c>
+      <c r="F6" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1003.2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -522,6 +602,18 @@
       <c r="C7" t="n">
         <v>1202.2</v>
       </c>
+      <c r="D7" t="n">
+        <v>1211.6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1242.2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1239.4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1247.2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -535,6 +627,18 @@
       <c r="C8" t="n">
         <v>177</v>
       </c>
+      <c r="D8" t="n">
+        <v>171.4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>167.4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>170.2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>169.4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -548,6 +652,18 @@
       <c r="C9" t="n">
         <v>369.8</v>
       </c>
+      <c r="D9" t="n">
+        <v>373.2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>368.6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>366.4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>369.6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -561,6 +677,18 @@
       <c r="C10" t="n">
         <v>732.4000000000001</v>
       </c>
+      <c r="D10" t="n">
+        <v>744.6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>750</v>
+      </c>
+      <c r="F10" t="n">
+        <v>748</v>
+      </c>
+      <c r="G10" t="n">
+        <v>772.6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -573,6 +701,18 @@
       </c>
       <c r="C11" t="n">
         <v>1089</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1097.8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1140.4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1147.4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1187.8</v>
       </c>
     </row>
   </sheetData>
